--- a/analyses/BCA_analysis/2017-5-31_Plate_2_BCA_analyses.xlsx
+++ b/analyses/BCA_analysis/2017-5-31_Plate_2_BCA_analyses.xlsx
@@ -1035,11 +1035,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1508954640"/>
-        <c:axId val="1506855696"/>
+        <c:axId val="1747553920"/>
+        <c:axId val="1668218464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1508954640"/>
+        <c:axId val="1747553920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1080,13 +1080,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1506855696"/>
+        <c:crossAx val="1668218464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.05"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1506855696"/>
+        <c:axId val="1668218464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
@@ -1132,7 +1132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1508954640"/>
+        <c:crossAx val="1747553920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1530,8 +1530,8 @@
   </sheetPr>
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J61" sqref="J61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2583,7 +2583,7 @@
         <v>1.6204920000000003</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="3"/>
+        <f>100/I37</f>
         <v>61.709653611372339</v>
       </c>
       <c r="K37" s="3">
@@ -2666,10 +2666,12 @@
         <v>4.1702730000000008</v>
       </c>
       <c r="J40" s="3">
-        <v>100</v>
+        <f t="shared" ref="J40" si="11">100/I40</f>
+        <v>23.979245483449162</v>
       </c>
       <c r="K40" s="3">
-        <v>0</v>
+        <f t="shared" ref="K40" si="12">100-J40</f>
+        <v>76.020754516550838</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
@@ -2728,7 +2730,7 @@
         <v>0.51400000000000001</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" ref="E43" si="11">AVERAGE(D43:D45)</f>
+        <f t="shared" ref="E43" si="13">AVERAGE(D43:D45)</f>
         <v>0.503</v>
       </c>
       <c r="F43" s="3">
@@ -2743,7 +2745,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" ref="I43:I61" si="12">G43*3</f>
+        <f t="shared" ref="I43:I61" si="14">G43*3</f>
         <v>1.6536810000000002</v>
       </c>
       <c r="J43" s="3">
@@ -2751,7 +2753,7 @@
         <v>60.471154956729862</v>
       </c>
       <c r="K43" s="3">
-        <f t="shared" ref="K43:K52" si="13">100-J43</f>
+        <f t="shared" ref="K43:K52" si="15">100-J43</f>
         <v>39.528845043270138</v>
       </c>
     </row>
@@ -2811,7 +2813,7 @@
         <v>1.071</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" ref="E46:E61" si="14">AVERAGE(D46:D48)</f>
+        <f t="shared" ref="E46:E61" si="16">AVERAGE(D46:D48)</f>
         <v>0.95100000000000007</v>
       </c>
       <c r="F46" s="3">
@@ -2826,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="I46" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.5930730000000004</v>
       </c>
       <c r="J46" s="3">
@@ -2834,7 +2836,7 @@
         <v>27.831329895050835</v>
       </c>
       <c r="K46" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>72.168670104949172</v>
       </c>
     </row>
@@ -2894,7 +2896,7 @@
         <v>1.6220000000000001</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.4953333333333336</v>
       </c>
       <c r="F49" s="3">
@@ -2909,7 +2911,7 @@
         <v>3</v>
       </c>
       <c r="I49" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.9494920000000011</v>
       </c>
       <c r="J49" s="3">
@@ -2917,7 +2919,7 @@
         <v>16.808157738509436</v>
       </c>
       <c r="K49" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>83.191842261490564</v>
       </c>
     </row>
@@ -2977,7 +2979,7 @@
         <v>1.8720000000000001</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.766</v>
       </c>
       <c r="F52" s="3">
@@ -2992,15 +2994,15 @@
         <v>3</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.1212080000000002</v>
       </c>
       <c r="J52" s="3">
-        <f t="shared" ref="J52" si="15">100/I52</f>
+        <f t="shared" ref="J52" si="17">100/I52</f>
         <v>14.042561318248252</v>
       </c>
       <c r="K52" s="3">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>85.957438681751754</v>
       </c>
     </row>
@@ -3060,7 +3062,7 @@
         <v>2.1349999999999998</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.8376666666666666</v>
       </c>
       <c r="F55" s="3">
@@ -3075,15 +3077,15 @@
         <v>3</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>7.4314529999999994</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" ref="J55:J61" si="16">100/I55</f>
+        <f t="shared" ref="J55:J61" si="18">100/I55</f>
         <v>13.456318703758203</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" ref="K55" si="17">100-J55</f>
+        <f t="shared" ref="K55" si="19">100-J55</f>
         <v>86.5436812962418</v>
       </c>
     </row>
@@ -3143,7 +3145,7 @@
         <v>1.0009999999999999</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>0.95133333333333325</v>
       </c>
       <c r="F58" s="3">
@@ -3158,15 +3160,15 @@
         <v>3</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>3.594516</v>
       </c>
       <c r="J58" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>27.820157150503711</v>
       </c>
       <c r="K58" s="3">
-        <f t="shared" ref="K58:K61" si="18">100-J58</f>
+        <f t="shared" ref="K58:K61" si="20">100-J58</f>
         <v>72.179842849496282</v>
       </c>
     </row>
@@ -3226,7 +3228,7 @@
         <v>1.4330000000000001</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1.2853333333333332</v>
       </c>
       <c r="F61" s="3">
@@ -3241,15 +3243,15 @@
         <v>3</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>5.0404019999999994</v>
       </c>
       <c r="J61" s="3">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>19.839687390013736</v>
       </c>
       <c r="K61" s="3">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>80.160312609986264</v>
       </c>
     </row>
